--- a/xls/TUL-Fakulta přírodovědně-humanitní a pedagogická_Local.xlsx
+++ b/xls/TUL-Fakulta přírodovědně-humanitní a pedagogická_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -85,9 +91,6 @@
     <t>Šlamborová, Irena, 2666421</t>
   </si>
   <si>
-    <t>Kvaček, Robert, 1877445</t>
-  </si>
-  <si>
     <t>Habánová, Anna, 6650538</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>The kinetics of antibacterial effect tested on modified textile substrates</t>
   </si>
   <si>
-    <t>Atentát na Reinharda Heydricha v souvislostech</t>
-  </si>
-  <si>
     <t>"Edler Wettstreit der beiden Völker." Die Anfänge der Tätigkeit der Reichenberger Kreisgruppe des Metznerbundes, die Oktobergruppe und Erwin Müller</t>
   </si>
   <si>
@@ -160,9 +160,6 @@
     <t>1335-0617</t>
   </si>
   <si>
-    <t>0862-6111</t>
-  </si>
-  <si>
     <t>0049-5123</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Vlákna a textil</t>
   </si>
   <si>
-    <t>Český časopis historický</t>
-  </si>
-  <si>
     <t>Umění Art</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>0fe9aaac55cc291523321e54d68ae091937559c7</t>
   </si>
   <si>
-    <t>415dbeb68ef337ec79eb1727904d365c497ef07c</t>
-  </si>
-  <si>
     <t>5ee885a79b5808678fa21e9ae40226ce916e34e2</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>JJ - Ostatní materiály</t>
   </si>
   <si>
-    <t>AB - Dějiny</t>
-  </si>
-  <si>
     <t>AL - Umění, architektura, kulturní dědictví</t>
   </si>
   <si>
@@ -353,6 +341,45 @@
   </si>
   <si>
     <t>TUL-Technická univerzita v Liberci</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
+  </si>
+  <si>
+    <t>Medical and Health Sciences</t>
   </si>
 </sst>
 </file>
@@ -723,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,7 +761,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,13 +819,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.2857143</v>
@@ -807,54 +840,60 @@
         <v>3.026509</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
         <v>97</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>100</v>
       </c>
       <c r="P2">
         <v>46747885</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -863,754 +902,770 @@
         <v>7.652999900000001</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
         <v>98</v>
-      </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>101</v>
       </c>
       <c r="P3">
         <v>46747885</v>
       </c>
       <c r="Q3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" t="s">
         <v>110</v>
       </c>
-      <c r="R3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" t="s">
-        <v>112</v>
+      <c r="U3" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>21.507</v>
+        <v>36.856998</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
         <v>99</v>
-      </c>
-      <c r="O4" t="s">
-        <v>102</v>
       </c>
       <c r="P4">
         <v>46747885</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
         <v>111</v>
       </c>
-      <c r="S4" t="s">
-        <v>112</v>
+      <c r="U4" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>36.856998</v>
+        <v>12.216434</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P5">
         <v>46747885</v>
       </c>
       <c r="Q5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" t="s">
         <v>112</v>
       </c>
+      <c r="U5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12.216434</v>
+        <v>20.211588</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>46747885</v>
       </c>
       <c r="Q6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" t="s">
         <v>112</v>
       </c>
+      <c r="U6" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.33333334</v>
       </c>
       <c r="D7">
-        <v>20.211588</v>
+        <v>3.4124234</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P7">
         <v>46747885</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T7" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.33333334</v>
+        <v>0.333</v>
       </c>
       <c r="D8">
-        <v>3.4124234</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P8">
         <v>46747885</v>
       </c>
       <c r="Q8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.333</v>
+        <v>0.40000001</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.1220002</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s">
-        <v>106</v>
       </c>
       <c r="P9">
         <v>46747885</v>
       </c>
       <c r="Q9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" t="s">
         <v>110</v>
       </c>
-      <c r="R9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" t="s">
-        <v>112</v>
+      <c r="U9" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.40000001</v>
+        <v>0.08333333599999999</v>
       </c>
       <c r="D10">
-        <v>6.1220002</v>
+        <v>0.8840245000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P10">
         <v>46747885</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.08333333599999999</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8840245000000001</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P11">
         <v>46747885</v>
       </c>
       <c r="Q11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>13.491</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>46747885</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" t="s">
         <v>112</v>
       </c>
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D13">
-        <v>13.491</v>
+        <v>7.046</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" t="s">
         <v>94</v>
       </c>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P13">
         <v>46747885</v>
       </c>
       <c r="Q13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="T13" t="s">
+        <v>117</v>
+      </c>
+      <c r="U13" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.66666669</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>7.046</v>
+        <v>8.0089998</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" t="s">
         <v>95</v>
       </c>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P14">
         <v>46747885</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S14" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="D15">
-        <v>8.0089998</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15">
-        <v>46747885</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" t="s">
-        <v>112</v>
+      <c r="U14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3" location="2-2014"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-    <hyperlink ref="J11" r:id="rId6"/>
-    <hyperlink ref="J12" r:id="rId7"/>
-    <hyperlink ref="J15" r:id="rId8"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId3" location="2-2014"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
+    <hyperlink ref="J11" r:id="rId7"/>
+    <hyperlink ref="J14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
